--- a/nft_stats.xlsx
+++ b/nft_stats.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +609,7 @@
         <v>20</v>
       </c>
       <c r="N3" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="str">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="S3" t="str">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T3" t="str">
         <v>3</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="str">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y3" t="str">
         <v>8</v>
@@ -2256,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="N24" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O24" t="str">
         <v>0</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>0xfe01e368d65504d620b2d89f987232400210a5fb</v>
+        <v>0xa4ada63fa9417e00c2794cd51db7e9a6aaa473d9</v>
       </c>
       <c r="B42" t="str">
         <v>3</v>
@@ -3624,34 +3624,34 @@
         <v>0</v>
       </c>
       <c r="D42" t="str">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E42" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G42" t="str">
         <v>0.00</v>
       </c>
       <c r="H42" t="str">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I42" t="str">
         <v>0</v>
       </c>
       <c r="J42" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="str">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="L42" t="str">
-        <v>0.40</v>
+        <v>3.11</v>
       </c>
       <c r="M42" t="str">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="N42" t="str">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="str">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="Q42" t="str">
-        <v>0.40</v>
+        <v>3.19</v>
       </c>
       <c r="R42" t="str">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="S42" t="str">
         <v>1</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="str">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="V42" t="str">
-        <v>0.01</v>
+        <v>0.10</v>
       </c>
       <c r="W42" t="str">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="X42" t="str">
         <v>0</v>
@@ -3690,51 +3690,51 @@
         <v>0</v>
       </c>
       <c r="Z42" t="str">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="AA42" t="str">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0x31f38a4e6cd69a8f4176537df3fc5db7ab1c2da5</v>
+        <v>0xfe01e368d65504d620b2d89f987232400210a5fb</v>
       </c>
       <c r="B43" t="str">
         <v>3</v>
       </c>
       <c r="C43" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="str">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E43" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="str">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G43" t="str">
-        <v>0.31</v>
+        <v>0.00</v>
       </c>
       <c r="H43" t="str">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I43" t="str">
         <v>0</v>
       </c>
       <c r="J43" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="str">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="L43" t="str">
-        <v>2.87</v>
+        <v>0.40</v>
       </c>
       <c r="M43" t="str">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="N43" t="str">
         <v>0</v>
@@ -3743,28 +3743,28 @@
         <v>0</v>
       </c>
       <c r="P43" t="str">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Q43" t="str">
-        <v>2.91</v>
+        <v>0.40</v>
       </c>
       <c r="R43" t="str">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="S43" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="str">
         <v>0</v>
       </c>
       <c r="U43" t="str">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="V43" t="str">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="W43" t="str">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="X43" t="str">
         <v>0</v>
@@ -3773,190 +3773,190 @@
         <v>0</v>
       </c>
       <c r="Z43" t="str">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="AA43" t="str">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0xeb9c8b66cab4361801b43eeb1a090f0a3ccd1f5d</v>
+        <v>0x31f38a4e6cd69a8f4176537df3fc5db7ab1c2da5</v>
       </c>
       <c r="B44" t="str">
         <v>3</v>
       </c>
       <c r="C44" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="str">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E44" t="str">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F44" t="str">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G44" t="str">
-        <v>0.00</v>
+        <v>0.31</v>
       </c>
       <c r="H44" t="str">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I44" t="str">
         <v>0</v>
       </c>
       <c r="J44" t="str">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="K44" t="str">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L44" t="str">
-        <v>0.00</v>
+        <v>2.87</v>
       </c>
       <c r="M44" t="str">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N44" t="str">
         <v>0</v>
       </c>
       <c r="O44" t="str">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="P44" t="str">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q44" t="str">
-        <v>0.00</v>
+        <v>2.91</v>
       </c>
       <c r="R44" t="str">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S44" t="str">
         <v>0</v>
       </c>
       <c r="T44" t="str">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="U44" t="str">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V44" t="str">
-        <v>0.00</v>
+        <v>0.08</v>
       </c>
       <c r="W44" t="str">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="X44" t="str">
         <v>0</v>
       </c>
       <c r="Y44" t="str">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="str">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA44" t="str">
-        <v>0.00</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0xb862cdd432abe45edace0517aa12c630dd2f9998</v>
+        <v>0xeb9c8b66cab4361801b43eeb1a090f0a3ccd1f5d</v>
       </c>
       <c r="B45" t="str">
         <v>3</v>
       </c>
       <c r="C45" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="str">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F45" t="str">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G45" t="str">
-        <v>1.22</v>
+        <v>0.00</v>
       </c>
       <c r="H45" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="str">
         <v>0</v>
       </c>
       <c r="J45" t="str">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="K45" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="str">
-        <v>0.40</v>
+        <v>0.00</v>
       </c>
       <c r="M45" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="str">
         <v>0</v>
       </c>
       <c r="O45" t="str">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="P45" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="str">
-        <v>0.34</v>
+        <v>0.00</v>
       </c>
       <c r="R45" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="str">
         <v>0</v>
       </c>
       <c r="T45" t="str">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="U45" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45" t="str">
-        <v>0.01</v>
+        <v>0.00</v>
       </c>
       <c r="W45" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" t="str">
         <v>0</v>
       </c>
       <c r="Y45" t="str">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="Z45" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="str">
-        <v>0.02</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0x561791808a5e499b2704973970243ae38acc7d87</v>
+        <v>0xb862cdd432abe45edace0517aa12c630dd2f9998</v>
       </c>
       <c r="B46" t="str">
         <v>3</v>
       </c>
       <c r="C46" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="str">
         <v>0</v>
@@ -3965,72 +3965,72 @@
         <v>0</v>
       </c>
       <c r="G46" t="str">
-        <v>0.00</v>
+        <v>1.22</v>
       </c>
       <c r="H46" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="str">
         <v>0</v>
       </c>
       <c r="K46" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46" t="str">
-        <v>0.00</v>
+        <v>0.40</v>
       </c>
       <c r="M46" t="str">
         <v>1</v>
       </c>
       <c r="N46" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46" t="str">
         <v>0</v>
       </c>
       <c r="P46" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="str">
-        <v>0.16</v>
+        <v>0.34</v>
       </c>
       <c r="R46" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T46" t="str">
         <v>0</v>
       </c>
       <c r="U46" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V46" t="str">
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="W46" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X46" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="str">
         <v>0</v>
       </c>
       <c r="Z46" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA46" t="str">
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0xd92f70bbf62a161aff0da63d4f4608094f411eeb</v>
+        <v>0x561791808a5e499b2704973970243ae38acc7d87</v>
       </c>
       <c r="B47" t="str">
         <v>3</v>
@@ -4051,10 +4051,10 @@
         <v>0.00</v>
       </c>
       <c r="H47" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="str">
         <v>0</v>
@@ -4063,28 +4063,28 @@
         <v>3</v>
       </c>
       <c r="L47" t="str">
-        <v>0.36</v>
+        <v>0.00</v>
       </c>
       <c r="M47" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P47" t="str">
         <v>3</v>
       </c>
       <c r="Q47" t="str">
-        <v>0.00</v>
+        <v>0.16</v>
       </c>
       <c r="R47" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T47" t="str">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0.00</v>
       </c>
       <c r="W47" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X47" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y47" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA47" t="str">
         <v>0.00</v>
@@ -4113,126 +4113,126 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0x13b6cb13d487a7dbfabb18b6c82283e5c65ae7d3</v>
+        <v>0xd92f70bbf62a161aff0da63d4f4608094f411eeb</v>
       </c>
       <c r="B48" t="str">
         <v>3</v>
       </c>
       <c r="C48" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D48" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="str">
         <v>0</v>
       </c>
       <c r="F48" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="str">
-        <v>1.53</v>
+        <v>0.00</v>
       </c>
       <c r="H48" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="str">
         <v>0</v>
       </c>
       <c r="K48" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L48" t="str">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="M48" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="str">
         <v>0</v>
       </c>
       <c r="O48" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P48" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="str">
-        <v>0.42</v>
+        <v>0.00</v>
       </c>
       <c r="R48" t="str">
         <v>1</v>
       </c>
       <c r="S48" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T48" t="str">
         <v>0</v>
       </c>
       <c r="U48" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V48" t="str">
         <v>0.00</v>
       </c>
       <c r="W48" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y48" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA48" t="str">
-        <v>0.01</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0xfa65e65a6321c37486972d71b3f50400bd43f974</v>
+        <v>0x13b6cb13d487a7dbfabb18b6c82283e5c65ae7d3</v>
       </c>
       <c r="B49" t="str">
         <v>3</v>
       </c>
       <c r="C49" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="str">
         <v>0</v>
       </c>
       <c r="F49" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="str">
-        <v>0.00</v>
+        <v>1.53</v>
       </c>
       <c r="H49" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="str">
         <v>0</v>
       </c>
       <c r="K49" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49" t="str">
-        <v>0.23</v>
+        <v>0.41</v>
       </c>
       <c r="M49" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" t="str">
         <v>0</v>
@@ -4241,45 +4241,128 @@
         <v>0</v>
       </c>
       <c r="P49" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="str">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
       <c r="R49" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S49" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T49" t="str">
         <v>0</v>
       </c>
       <c r="U49" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V49" t="str">
         <v>0.00</v>
       </c>
       <c r="W49" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X49" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y49" t="str">
         <v>0</v>
       </c>
       <c r="Z49" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA49" t="str">
         <v>0.01</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0xfa65e65a6321c37486972d71b3f50400bd43f974</v>
+      </c>
+      <c r="B50" t="str">
+        <v>3</v>
+      </c>
+      <c r="C50" t="str">
+        <v>0</v>
+      </c>
+      <c r="D50" t="str">
+        <v>3</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H50" t="str">
+        <v>2</v>
+      </c>
+      <c r="I50" t="str">
+        <v>1</v>
+      </c>
+      <c r="J50" t="str">
+        <v>0</v>
+      </c>
+      <c r="K50" t="str">
+        <v>2</v>
+      </c>
+      <c r="L50" t="str">
+        <v>0.23</v>
+      </c>
+      <c r="M50" t="str">
+        <v>2</v>
+      </c>
+      <c r="N50" t="str">
+        <v>0</v>
+      </c>
+      <c r="O50" t="str">
+        <v>0</v>
+      </c>
+      <c r="P50" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>0.23</v>
+      </c>
+      <c r="R50" t="str">
+        <v>2</v>
+      </c>
+      <c r="S50" t="str">
+        <v>3</v>
+      </c>
+      <c r="T50" t="str">
+        <v>0</v>
+      </c>
+      <c r="U50" t="str">
+        <v>2</v>
+      </c>
+      <c r="V50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="W50" t="str">
+        <v>2</v>
+      </c>
+      <c r="X50" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y50" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="str">
+        <v>2</v>
+      </c>
+      <c r="AA50" t="str">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA50"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/nft_stats.xlsx
+++ b/nft_stats.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -490,13 +490,13 @@
         <v>0xb7cd0c8955b19859f38fb58b583995f8380572c5</v>
       </c>
       <c r="B2" t="str">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="C2" t="str">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D2" t="str">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -504,11 +504,8 @@
       <c r="F2" t="str">
         <v>0</v>
       </c>
-      <c r="G2" t="str">
-        <v>16.76</v>
-      </c>
       <c r="H2" t="str">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="I2" t="str">
         <v>0</v>
@@ -517,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="L2" t="str">
-        <v>26.58</v>
+        <v>30.53</v>
       </c>
       <c r="M2" t="str">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="N2" t="str">
         <v>0</v>
@@ -532,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="str">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="Q2" t="str">
-        <v>25.65</v>
+        <v>31.10</v>
       </c>
       <c r="R2" t="str">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="S2" t="str">
         <v>0</v>
@@ -547,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="str">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="V2" t="str">
-        <v>0.45</v>
+        <v>0.60</v>
       </c>
       <c r="W2" t="str">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="X2" t="str">
         <v>0</v>
@@ -562,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="Z2" t="str">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AA2" t="str">
-        <v>0.83</v>
+        <v>0.90</v>
       </c>
     </row>
     <row r="3">
@@ -573,79 +570,76 @@
         <v>0x462c7eda2b63ffebea38256a8b1160de43c91d43</v>
       </c>
       <c r="B3" t="str">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C3" t="str">
         <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" t="str">
         <v>6</v>
       </c>
       <c r="F3" t="str">
-        <v>10</v>
-      </c>
-      <c r="G3" t="str">
-        <v>0.73</v>
+        <v>12</v>
       </c>
       <c r="H3" t="str">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="str">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J3" t="str">
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L3" t="str">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="M3" t="str">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N3" t="str">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O3" t="str">
         <v>2</v>
       </c>
       <c r="P3" t="str">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q3" t="str">
-        <v>2.92</v>
+        <v>3.14</v>
       </c>
       <c r="R3" t="str">
         <v>3</v>
       </c>
       <c r="S3" t="str">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="T3" t="str">
         <v>3</v>
       </c>
       <c r="U3" t="str">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V3" t="str">
         <v>0.01</v>
       </c>
       <c r="W3" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3" t="str">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Y3" t="str">
         <v>8</v>
       </c>
       <c r="Z3" t="str">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="str">
         <v>0.00</v>
@@ -670,9 +664,6 @@
       <c r="F4" t="str">
         <v>0</v>
       </c>
-      <c r="G4" t="str">
-        <v>9.87</v>
-      </c>
       <c r="L4" t="str">
         <v>0.00</v>
       </c>
@@ -688,82 +679,31 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0xe94f4d2a6e8d05d9f7407fda721b8667ca545e02</v>
+        <v>0x5ed68c6fbcf07e2e299a3ad8dcab2d228cb83007</v>
       </c>
       <c r="B5" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="str">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D5" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
       </c>
-      <c r="G5" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="H5" t="str">
-        <v>0</v>
-      </c>
-      <c r="I5" t="str">
-        <v>3</v>
-      </c>
-      <c r="J5" t="str">
-        <v>0</v>
-      </c>
-      <c r="K5" t="str">
-        <v>3</v>
-      </c>
       <c r="L5" t="str">
         <v>0.00</v>
       </c>
-      <c r="M5" t="str">
-        <v>1</v>
-      </c>
-      <c r="N5" t="str">
-        <v>1</v>
-      </c>
-      <c r="O5" t="str">
-        <v>3</v>
-      </c>
-      <c r="P5" t="str">
-        <v>5</v>
-      </c>
       <c r="Q5" t="str">
-        <v>0.10</v>
-      </c>
-      <c r="R5" t="str">
-        <v>0</v>
-      </c>
-      <c r="S5" t="str">
-        <v>3</v>
-      </c>
-      <c r="T5" t="str">
-        <v>2</v>
-      </c>
-      <c r="U5" t="str">
-        <v>5</v>
+        <v>0.00</v>
       </c>
       <c r="V5" t="str">
         <v>0.00</v>
-      </c>
-      <c r="W5" t="str">
-        <v>0</v>
-      </c>
-      <c r="X5" t="str">
-        <v>5</v>
-      </c>
-      <c r="Y5" t="str">
-        <v>3</v>
-      </c>
-      <c r="Z5" t="str">
-        <v>5</v>
       </c>
       <c r="AA5" t="str">
         <v>0.00</v>
@@ -771,7 +711,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0xfcf2d8dbe2a5ed88739b4658ed8eb10fb3512c7f</v>
+        <v>0xe94f4d2a6e8d05d9f7407fda721b8667ca545e02</v>
       </c>
       <c r="B6" t="str">
         <v>18</v>
@@ -780,173 +720,167 @@
         <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F6" t="str">
-        <v>12</v>
-      </c>
-      <c r="G6" t="str">
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="H6" t="str">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I6" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="str">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L6" t="str">
-        <v>2.95</v>
+        <v>0.00</v>
       </c>
       <c r="M6" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N6" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P6" t="str">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="str">
-        <v>3.78</v>
+        <v>0.10</v>
       </c>
       <c r="R6" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S6" t="str">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="T6" t="str">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="U6" t="str">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="V6" t="str">
-        <v>0.02</v>
+        <v>0.00</v>
       </c>
       <c r="W6" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X6" t="str">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="str">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Z6" t="str">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="str">
-        <v>0.34</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0xdf7803643a0f8976bcd0d3d93458da37086c82ee</v>
+        <v>0xfcf2d8dbe2a5ed88739b4658ed8eb10fb3512c7f</v>
       </c>
       <c r="B7" t="str">
+        <v>18</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <v>27</v>
+      </c>
+      <c r="E7" t="str">
+        <v>4</v>
+      </c>
+      <c r="F7" t="str">
+        <v>13</v>
+      </c>
+      <c r="H7" t="str">
         <v>14</v>
       </c>
-      <c r="C7" t="str">
-        <v>3</v>
-      </c>
-      <c r="D7" t="str">
-        <v>11</v>
-      </c>
-      <c r="E7" t="str">
-        <v>0</v>
-      </c>
-      <c r="F7" t="str">
-        <v>0</v>
-      </c>
-      <c r="G7" t="str">
-        <v>1.58</v>
-      </c>
-      <c r="H7" t="str">
-        <v>11</v>
-      </c>
       <c r="I7" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="str">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K7" t="str">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L7" t="str">
-        <v>3.65</v>
+        <v>2.95</v>
       </c>
       <c r="M7" t="str">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N7" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="str">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P7" t="str">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="str">
-        <v>2.50</v>
+        <v>3.78</v>
       </c>
       <c r="R7" t="str">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S7" t="str">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="T7" t="str">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="U7" t="str">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="V7" t="str">
         <v>0.02</v>
       </c>
       <c r="W7" t="str">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X7" t="str">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="str">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="str">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AA7" t="str">
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0xb81b629646877a575723c523239fb3f791663c30</v>
+        <v>0xdf7803643a0f8976bcd0d3d93458da37086c82ee</v>
       </c>
       <c r="B8" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="str">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D8" t="str">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E8" t="str">
         <v>0</v>
@@ -954,82 +888,79 @@
       <c r="F8" t="str">
         <v>0</v>
       </c>
-      <c r="G8" t="str">
-        <v>2.32</v>
-      </c>
       <c r="H8" t="str">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I8" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="str">
         <v>0</v>
       </c>
       <c r="K8" t="str">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L8" t="str">
-        <v>0.42</v>
+        <v>3.65</v>
       </c>
       <c r="M8" t="str">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N8" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="str">
         <v>0</v>
       </c>
       <c r="P8" t="str">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="str">
-        <v>0.40</v>
+        <v>2.50</v>
       </c>
       <c r="R8" t="str">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S8" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8" t="str">
         <v>0</v>
       </c>
       <c r="U8" t="str">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="V8" t="str">
         <v>0.02</v>
       </c>
       <c r="W8" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X8" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="str">
         <v>0</v>
       </c>
       <c r="Z8" t="str">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="str">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0xc4da1707a7a16cf4ac15d75d6a49a684b23ee1e4</v>
+        <v>0xb81b629646877a575723c523239fb3f791663c30</v>
       </c>
       <c r="B9" t="str">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D9" t="str">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9" t="str">
         <v>0</v>
@@ -1037,192 +968,183 @@
       <c r="F9" t="str">
         <v>0</v>
       </c>
-      <c r="G9" t="str">
-        <v>1.50</v>
-      </c>
       <c r="H9" t="str">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I9" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="str">
         <v>0</v>
       </c>
       <c r="K9" t="str">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L9" t="str">
-        <v>3.30</v>
+        <v>0.42</v>
       </c>
       <c r="M9" t="str">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N9" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="str">
         <v>0</v>
       </c>
       <c r="P9" t="str">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="str">
-        <v>3.05</v>
+        <v>0.40</v>
       </c>
       <c r="R9" t="str">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="S9" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" t="str">
         <v>0</v>
       </c>
       <c r="U9" t="str">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V9" t="str">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="W9" t="str">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X9" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="str">
         <v>0</v>
       </c>
       <c r="Z9" t="str">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA9" t="str">
-        <v>0.30</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x9ed45afd5e26f88dfad74aa9bbfdd8d4e9fbc56d</v>
+        <v>0xfbc330b86b398e672b0db469a3087bf535cff4cb</v>
       </c>
       <c r="B10" t="str">
+        <v>12</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <v>11</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2</v>
+      </c>
+      <c r="F10" t="str">
+        <v>1</v>
+      </c>
+      <c r="H10" t="str">
+        <v>3</v>
+      </c>
+      <c r="I10" t="str">
+        <v>5</v>
+      </c>
+      <c r="J10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K10" t="str">
         <v>10</v>
       </c>
-      <c r="C10" t="str">
-        <v>9</v>
-      </c>
-      <c r="D10" t="str">
-        <v>1</v>
-      </c>
-      <c r="E10" t="str">
-        <v>0</v>
-      </c>
-      <c r="F10" t="str">
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
-        <v>5.60</v>
-      </c>
-      <c r="H10" t="str">
-        <v>1</v>
-      </c>
-      <c r="I10" t="str">
-        <v>0</v>
-      </c>
-      <c r="J10" t="str">
-        <v>0</v>
-      </c>
-      <c r="K10" t="str">
-        <v>1</v>
-      </c>
       <c r="L10" t="str">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="M10" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O10" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="str">
-        <v>0.20</v>
+        <v>0.32</v>
       </c>
       <c r="R10" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="str">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T10" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V10" t="str">
-        <v>0.02</v>
+        <v>0.00</v>
       </c>
       <c r="W10" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="str">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="str">
         <v>0</v>
       </c>
       <c r="Z10" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="str">
-        <v>0.04</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0x9660ff556cef11c72da81ee9da49aaaea692ddee</v>
+        <v>0xc4da1707a7a16cf4ac15d75d6a49a684b23ee1e4</v>
       </c>
       <c r="B11" t="str">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="str">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E11" t="str">
         <v>0</v>
       </c>
       <c r="F11" t="str">
-        <v>8</v>
-      </c>
-      <c r="G11" t="str">
-        <v>0.40</v>
+        <v>0</v>
       </c>
       <c r="H11" t="str">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I11" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11" t="str">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L11" t="str">
-        <v>2.60</v>
+        <v>3.30</v>
       </c>
       <c r="M11" t="str">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N11" t="str">
         <v>0</v>
@@ -1231,51 +1153,51 @@
         <v>0</v>
       </c>
       <c r="P11" t="str">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>3.05</v>
+      </c>
+      <c r="R11" t="str">
         <v>15</v>
       </c>
-      <c r="Q11" t="str">
-        <v>2.41</v>
-      </c>
-      <c r="R11" t="str">
-        <v>56</v>
-      </c>
       <c r="S11" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T11" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="str">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V11" t="str">
-        <v>0.10</v>
+        <v>0.08</v>
       </c>
       <c r="W11" t="str">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="X11" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="str">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="str">
-        <v>0.13</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0xea11dc4d61a374d96f287f368e1d141a64bc1c5e</v>
+        <v>0x9ed45afd5e26f88dfad74aa9bbfdd8d4e9fbc56d</v>
       </c>
       <c r="B12" t="str">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="str">
         <v>1</v>
@@ -1286,9 +1208,6 @@
       <c r="F12" t="str">
         <v>0</v>
       </c>
-      <c r="G12" t="str">
-        <v>1.58</v>
-      </c>
       <c r="H12" t="str">
         <v>1</v>
       </c>
@@ -1302,13 +1221,13 @@
         <v>1</v>
       </c>
       <c r="L12" t="str">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="M12" t="str">
         <v>1</v>
       </c>
       <c r="N12" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="str">
         <v>0</v>
@@ -1317,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="Q12" t="str">
-        <v>0.10</v>
+        <v>0.20</v>
       </c>
       <c r="R12" t="str">
         <v>1</v>
       </c>
       <c r="S12" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="str">
         <v>0</v>
@@ -1332,13 +1251,13 @@
         <v>1</v>
       </c>
       <c r="V12" t="str">
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
       <c r="W12" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y12" t="str">
         <v>0</v>
@@ -1347,39 +1266,84 @@
         <v>1</v>
       </c>
       <c r="AA12" t="str">
-        <v>0.00</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0x6d3f12a0b58ae8e772380cd58428aa887a70a2e8</v>
+        <v>0xea11dc4d61a374d96f287f368e1d141a64bc1c5e</v>
       </c>
       <c r="B13" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="str">
         <v>0</v>
       </c>
-      <c r="G13" t="str">
-        <v>2.23</v>
+      <c r="H13" t="str">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <v>0</v>
+      </c>
+      <c r="J13" t="str">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <v>1</v>
       </c>
       <c r="L13" t="str">
-        <v>0.00</v>
+        <v>0.13</v>
+      </c>
+      <c r="M13" t="str">
+        <v>1</v>
+      </c>
+      <c r="N13" t="str">
+        <v>2</v>
+      </c>
+      <c r="O13" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" t="str">
+        <v>1</v>
       </c>
       <c r="Q13" t="str">
-        <v>0.00</v>
+        <v>0.10</v>
+      </c>
+      <c r="R13" t="str">
+        <v>1</v>
+      </c>
+      <c r="S13" t="str">
+        <v>1</v>
+      </c>
+      <c r="T13" t="str">
+        <v>0</v>
+      </c>
+      <c r="U13" t="str">
+        <v>1</v>
       </c>
       <c r="V13" t="str">
         <v>0.00</v>
+      </c>
+      <c r="W13" t="str">
+        <v>0</v>
+      </c>
+      <c r="X13" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="str">
+        <v>1</v>
       </c>
       <c r="AA13" t="str">
         <v>0.00</v>
@@ -1387,16 +1351,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0xc1e7ca17274c36a3358460f93ce30200916688b6</v>
+        <v>0x9a6185cdb0d83ed8319b6e01f791b8dfcb9425df</v>
       </c>
       <c r="B14" t="str">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E14" t="str">
         <v>0</v>
@@ -1404,82 +1368,79 @@
       <c r="F14" t="str">
         <v>0</v>
       </c>
-      <c r="G14" t="str">
-        <v>1.04</v>
-      </c>
       <c r="H14" t="str">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I14" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="str">
         <v>0</v>
       </c>
       <c r="K14" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L14" t="str">
-        <v>0.00</v>
+        <v>0.05</v>
       </c>
       <c r="M14" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N14" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="str">
         <v>0</v>
       </c>
       <c r="P14" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="str">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="R14" t="str">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="S14" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" t="str">
         <v>0</v>
       </c>
       <c r="U14" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V14" t="str">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="W14" t="str">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="X14" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="str">
         <v>0</v>
       </c>
       <c r="Z14" t="str">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AA14" t="str">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x0889bdfb98c29c25908179e27486ed56a44477ca</v>
+        <v>0xc1e7ca17274c36a3358460f93ce30200916688b6</v>
       </c>
       <c r="B15" t="str">
+        <v>7</v>
+      </c>
+      <c r="C15" t="str">
         <v>5</v>
       </c>
-      <c r="C15" t="str">
-        <v>4</v>
-      </c>
       <c r="D15" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="str">
         <v>0</v>
@@ -1487,14 +1448,11 @@
       <c r="F15" t="str">
         <v>0</v>
       </c>
-      <c r="G15" t="str">
-        <v>1.64</v>
-      </c>
       <c r="H15" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="str">
         <v>0</v>
@@ -1503,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="L15" t="str">
-        <v>0.23</v>
+        <v>0.00</v>
       </c>
       <c r="M15" t="str">
         <v>1</v>
       </c>
       <c r="N15" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="str">
         <v>0</v>
@@ -1518,13 +1476,13 @@
         <v>1</v>
       </c>
       <c r="Q15" t="str">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="R15" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" t="str">
         <v>0</v>
@@ -1533,13 +1491,13 @@
         <v>1</v>
       </c>
       <c r="V15" t="str">
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="W15" t="str">
         <v>1</v>
       </c>
       <c r="X15" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y15" t="str">
         <v>0</v>
@@ -1548,116 +1506,62 @@
         <v>1</v>
       </c>
       <c r="AA15" t="str">
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0x99c223274332b3b7766c972f586fccff406622ca</v>
+        <v>0x6d3f12a0b58ae8e772380cd58428aa887a70a2e8</v>
       </c>
       <c r="B16" t="str">
+        <v>6</v>
+      </c>
+      <c r="C16" t="str">
         <v>5</v>
       </c>
-      <c r="C16" t="str">
-        <v>0</v>
-      </c>
       <c r="D16" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="str">
         <v>0</v>
       </c>
-      <c r="G16" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="H16" t="str">
-        <v>4</v>
-      </c>
-      <c r="I16" t="str">
-        <v>1</v>
-      </c>
-      <c r="J16" t="str">
-        <v>0</v>
-      </c>
-      <c r="K16" t="str">
-        <v>5</v>
-      </c>
       <c r="L16" t="str">
-        <v>0.48</v>
-      </c>
-      <c r="M16" t="str">
-        <v>4</v>
-      </c>
-      <c r="N16" t="str">
-        <v>1</v>
-      </c>
-      <c r="O16" t="str">
-        <v>0</v>
-      </c>
-      <c r="P16" t="str">
-        <v>5</v>
+        <v>0.00</v>
       </c>
       <c r="Q16" t="str">
-        <v>0.43</v>
-      </c>
-      <c r="R16" t="str">
-        <v>10</v>
-      </c>
-      <c r="S16" t="str">
-        <v>4</v>
-      </c>
-      <c r="T16" t="str">
-        <v>0</v>
-      </c>
-      <c r="U16" t="str">
-        <v>5</v>
+        <v>0.00</v>
       </c>
       <c r="V16" t="str">
-        <v>0.02</v>
-      </c>
-      <c r="W16" t="str">
-        <v>4</v>
-      </c>
-      <c r="X16" t="str">
-        <v>5</v>
-      </c>
-      <c r="Y16" t="str">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="str">
-        <v>5</v>
+        <v>0.00</v>
       </c>
       <c r="AA16" t="str">
-        <v>0.01</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0x14489301dff5aefb38c8a9337bdd71c5326bdc95</v>
+        <v>0x1e56bff5ea6643985008521650df481132aad5ad</v>
       </c>
       <c r="B17" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" t="str">
         <v>0</v>
       </c>
-      <c r="G17" t="str">
-        <v>0.57</v>
-      </c>
       <c r="H17" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="str">
         <v>0</v>
@@ -1666,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" t="str">
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="M17" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="str">
         <v>1</v>
@@ -1681,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="str">
-        <v>0.64</v>
+        <v>0.20</v>
       </c>
       <c r="R17" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S17" t="str">
         <v>0</v>
@@ -1696,39 +1600,39 @@
         <v>0</v>
       </c>
       <c r="U17" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V17" t="str">
         <v>0.01</v>
       </c>
       <c r="W17" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X17" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y17" t="str">
         <v>0</v>
       </c>
       <c r="Z17" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA17" t="str">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0xf03c15650bfec5e4d926bf707bb237d93135f9e2</v>
+        <v>0xf1cdbbd2cce196835c650fb9708a1420dceb8a21</v>
       </c>
       <c r="B18" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="str">
         <v>0</v>
       </c>
       <c r="D18" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="str">
         <v>0</v>
@@ -1736,76 +1640,73 @@
       <c r="F18" t="str">
         <v>0</v>
       </c>
-      <c r="G18" t="str">
-        <v>0.00</v>
-      </c>
       <c r="H18" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" t="str">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J18" t="str">
         <v>0</v>
       </c>
       <c r="K18" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L18" t="str">
-        <v>1.30</v>
+        <v>0.12</v>
       </c>
       <c r="M18" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N18" t="str">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O18" t="str">
         <v>0</v>
       </c>
       <c r="P18" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="str">
-        <v>1.66</v>
+        <v>0.00</v>
       </c>
       <c r="R18" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="str">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="T18" t="str">
         <v>0</v>
       </c>
       <c r="U18" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V18" t="str">
         <v>0.00</v>
       </c>
       <c r="W18" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X18" t="str">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="str">
         <v>0</v>
       </c>
       <c r="Z18" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA18" t="str">
-        <v>0.07</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0xb2ed6de66f527a88fee596a5f7ddcc30c5031571</v>
+        <v>0x0e893d9769c3210c73843230dd250eecbc8fa302</v>
       </c>
       <c r="B19" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="str">
         <v>0</v>
@@ -1814,19 +1715,16 @@
         <v>4</v>
       </c>
       <c r="E19" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="str">
         <v>0</v>
       </c>
-      <c r="G19" t="str">
-        <v>0.00</v>
-      </c>
       <c r="H19" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="str">
         <v>0</v>
@@ -1835,28 +1733,28 @@
         <v>4</v>
       </c>
       <c r="L19" t="str">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="M19" t="str">
         <v>4</v>
       </c>
       <c r="N19" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="str">
         <v>0</v>
       </c>
       <c r="P19" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="str">
-        <v>1.64</v>
+        <v>0.85</v>
       </c>
       <c r="R19" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S19" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T19" t="str">
         <v>0</v>
@@ -1865,36 +1763,36 @@
         <v>4</v>
       </c>
       <c r="V19" t="str">
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="W19" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X19" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="str">
         <v>0</v>
       </c>
       <c r="Z19" t="str">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA19" t="str">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0x085170995135a09ce3a0209f34dca2596c4e18f4</v>
+        <v>0x0889bdfb98c29c25908179e27486ed56a44477ca</v>
       </c>
       <c r="B20" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="str">
         <v>0</v>
@@ -1902,26 +1800,23 @@
       <c r="F20" t="str">
         <v>0</v>
       </c>
-      <c r="G20" t="str">
-        <v>0.00</v>
-      </c>
       <c r="H20" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="str">
         <v>0</v>
       </c>
       <c r="K20" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L20" t="str">
-        <v>0.90</v>
+        <v>0.23</v>
       </c>
       <c r="M20" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="str">
         <v>0</v>
@@ -1930,31 +1825,31 @@
         <v>0</v>
       </c>
       <c r="P20" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="str">
-        <v>1.16</v>
+        <v>0.15</v>
       </c>
       <c r="R20" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S20" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T20" t="str">
         <v>0</v>
       </c>
       <c r="U20" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V20" t="str">
-        <v>0.02</v>
+        <v>0.00</v>
       </c>
       <c r="W20" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X20" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="str">
         <v>0</v>
@@ -1963,72 +1858,69 @@
         <v>1</v>
       </c>
       <c r="AA20" t="str">
-        <v>0.04</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0xe137ab4a383db6c25aa4925690518214d18e0a98</v>
+        <v>0x047597323b957cd25b595377cb0d694f496b0fd8</v>
       </c>
       <c r="B21" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="str">
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <v>0</v>
-      </c>
-      <c r="G21" t="str">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="H21" t="str">
         <v>4</v>
       </c>
       <c r="I21" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="str">
         <v>0</v>
       </c>
       <c r="K21" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" t="str">
-        <v>1.75</v>
+        <v>0.41</v>
       </c>
       <c r="M21" t="str">
         <v>3</v>
       </c>
       <c r="N21" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O21" t="str">
         <v>0</v>
       </c>
       <c r="P21" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="str">
-        <v>1.22</v>
+        <v>0.34</v>
       </c>
       <c r="R21" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T21" t="str">
         <v>0</v>
       </c>
       <c r="U21" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="str">
         <v>0.01</v>
@@ -2037,24 +1929,24 @@
         <v>1</v>
       </c>
       <c r="X21" t="str">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="str">
         <v>0</v>
       </c>
       <c r="Z21" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA21" t="str">
-        <v>0.02</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0x8fc1a09b073d6428c7ad09706d1007b6508d0e74</v>
+        <v>0xe496c3796f3465439db40d372035cd83b480f856</v>
       </c>
       <c r="B22" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="str">
         <v>0</v>
@@ -2063,52 +1955,49 @@
         <v>4</v>
       </c>
       <c r="E22" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" t="str">
-        <v>0</v>
-      </c>
-      <c r="G22" t="str">
-        <v>0.00</v>
+        <v>2</v>
       </c>
       <c r="H22" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" t="str">
         <v>0</v>
       </c>
       <c r="J22" t="str">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K22" t="str">
         <v>4</v>
       </c>
       <c r="L22" t="str">
-        <v>1.65</v>
+        <v>0.46</v>
       </c>
       <c r="M22" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N22" t="str">
         <v>0</v>
       </c>
       <c r="O22" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="str">
         <v>4</v>
       </c>
       <c r="Q22" t="str">
-        <v>1.60</v>
+        <v>0.66</v>
       </c>
       <c r="R22" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S22" t="str">
         <v>0</v>
       </c>
       <c r="T22" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U22" t="str">
         <v>4</v>
@@ -2117,33 +2006,33 @@
         <v>0.01</v>
       </c>
       <c r="W22" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X22" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z22" t="str">
         <v>4</v>
       </c>
       <c r="AA22" t="str">
-        <v>0.05</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0x3e9bbac4fdd82f1ed910fb806a407a8abb1bc195</v>
+        <v>0x99c223274332b3b7766c972f586fccff406622ca</v>
       </c>
       <c r="B23" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" t="str">
         <v>0</v>
@@ -2151,76 +2040,73 @@
       <c r="F23" t="str">
         <v>0</v>
       </c>
-      <c r="G23" t="str">
-        <v>1.27</v>
-      </c>
       <c r="H23" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="str">
         <v>0</v>
       </c>
       <c r="K23" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L23" t="str">
-        <v>0.20</v>
+        <v>0.48</v>
       </c>
       <c r="M23" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="str">
         <v>0</v>
       </c>
       <c r="P23" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="str">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="R23" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S23" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T23" t="str">
         <v>0</v>
       </c>
       <c r="U23" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="str">
         <v>0.02</v>
       </c>
       <c r="W23" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X23" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y23" t="str">
         <v>0</v>
       </c>
       <c r="Z23" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA23" t="str">
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0x047597323b957cd25b595377cb0d694f496b0fd8</v>
+        <v>0x14489301dff5aefb38c8a9337bdd71c5326bdc95</v>
       </c>
       <c r="B24" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="str">
         <v>1</v>
@@ -2232,16 +2118,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="str">
-        <v>1</v>
-      </c>
-      <c r="G24" t="str">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H24" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="str">
         <v>0</v>
@@ -2250,13 +2133,13 @@
         <v>4</v>
       </c>
       <c r="L24" t="str">
-        <v>0.33</v>
+        <v>0.74</v>
       </c>
       <c r="M24" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O24" t="str">
         <v>0</v>
@@ -2265,13 +2148,13 @@
         <v>4</v>
       </c>
       <c r="Q24" t="str">
-        <v>0.23</v>
+        <v>0.64</v>
       </c>
       <c r="R24" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S24" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T24" t="str">
         <v>0</v>
@@ -2283,10 +2166,10 @@
         <v>0.01</v>
       </c>
       <c r="W24" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X24" t="str">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="str">
         <v>0</v>
@@ -2295,30 +2178,27 @@
         <v>4</v>
       </c>
       <c r="AA24" t="str">
-        <v>0.00</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0xe496c3796f3465439db40d372035cd83b480f856</v>
+        <v>0xcd435c1b112a3a0094afe8374312124e448619c1</v>
       </c>
       <c r="B25" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="str">
-        <v>1</v>
-      </c>
-      <c r="G25" t="str">
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="H25" t="str">
         <v>1</v>
@@ -2327,55 +2207,55 @@
         <v>0</v>
       </c>
       <c r="J25" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" t="str">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="M25" t="str">
         <v>0</v>
       </c>
       <c r="N25" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="str">
         <v>0.00</v>
       </c>
       <c r="R25" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="str">
         <v>0</v>
       </c>
       <c r="T25" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U25" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25" t="str">
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="W25" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="str">
         <v>0.00</v>
@@ -2383,31 +2263,28 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0x32d66210495a091b83f3feb6712a1f8d3833be77</v>
+        <v>0x83ccfc2582672a8623b4f47baf436ec7c4b5292b</v>
       </c>
       <c r="B26" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26" t="str">
         <v>1</v>
       </c>
       <c r="E26" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" t="str">
-        <v>4</v>
-      </c>
-      <c r="G26" t="str">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="H26" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="str">
         <v>0</v>
@@ -2416,28 +2293,28 @@
         <v>1</v>
       </c>
       <c r="L26" t="str">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="M26" t="str">
         <v>1</v>
       </c>
       <c r="N26" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="str">
         <v>0</v>
       </c>
       <c r="P26" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="str">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="R26" t="str">
         <v>1</v>
       </c>
       <c r="S26" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T26" t="str">
         <v>0</v>
@@ -2446,36 +2323,36 @@
         <v>1</v>
       </c>
       <c r="V26" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="W26" t="str">
+        <v>1</v>
+      </c>
+      <c r="X26" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="str">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="str">
         <v>0.02</v>
-      </c>
-      <c r="W26" t="str">
-        <v>0</v>
-      </c>
-      <c r="X26" t="str">
-        <v>8</v>
-      </c>
-      <c r="Y26" t="str">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="str">
-        <v>1</v>
-      </c>
-      <c r="AA26" t="str">
-        <v>0.00</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>0x0e893d9769c3210c73843230dd250eecbc8fa302</v>
+        <v>0xf03c15650bfec5e4d926bf707bb237d93135f9e2</v>
       </c>
       <c r="B27" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" t="str">
         <v>0</v>
       </c>
       <c r="D27" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" t="str">
         <v>0</v>
@@ -2483,23 +2360,20 @@
       <c r="F27" t="str">
         <v>0</v>
       </c>
-      <c r="G27" t="str">
-        <v>0.00</v>
-      </c>
       <c r="H27" t="str">
         <v>3</v>
       </c>
       <c r="I27" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="str">
         <v>0</v>
       </c>
       <c r="K27" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="str">
-        <v>0.57</v>
+        <v>1.30</v>
       </c>
       <c r="M27" t="str">
         <v>4</v>
@@ -2514,51 +2388,51 @@
         <v>5</v>
       </c>
       <c r="Q27" t="str">
-        <v>0.85</v>
+        <v>1.66</v>
       </c>
       <c r="R27" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S27" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T27" t="str">
         <v>0</v>
       </c>
       <c r="U27" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="str">
-        <v>0.01</v>
+        <v>0.00</v>
       </c>
       <c r="W27" t="str">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X27" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="str">
         <v>0</v>
       </c>
       <c r="Z27" t="str">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA27" t="str">
-        <v>0.01</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0x5b007d3dfcf5fcbf6c412b4c5a83537978a292c0</v>
+        <v>0xfa65e65a6321c37486972d71b3f50400bd43f974</v>
       </c>
       <c r="B28" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="str">
         <v>0</v>
       </c>
       <c r="D28" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" t="str">
         <v>0</v>
@@ -2566,14 +2440,11 @@
       <c r="F28" t="str">
         <v>0</v>
       </c>
-      <c r="G28" t="str">
-        <v>0.00</v>
-      </c>
       <c r="H28" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="str">
         <v>0</v>
@@ -2582,28 +2453,28 @@
         <v>4</v>
       </c>
       <c r="L28" t="str">
-        <v>0.00</v>
+        <v>0.40</v>
       </c>
       <c r="M28" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N28" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" t="str">
         <v>4</v>
       </c>
       <c r="Q28" t="str">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="R28" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S28" t="str">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T28" t="str">
         <v>0</v>
@@ -2612,10 +2483,10 @@
         <v>4</v>
       </c>
       <c r="V28" t="str">
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="W28" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X28" t="str">
         <v>4</v>
@@ -2627,21 +2498,21 @@
         <v>4</v>
       </c>
       <c r="AA28" t="str">
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0xc80e67ec2b4a870169cdbf9d1dd6567ad8961890</v>
+        <v>0xb2ed6de66f527a88fee596a5f7ddcc30c5031571</v>
       </c>
       <c r="B29" t="str">
         <v>4</v>
       </c>
       <c r="C29" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" t="str">
         <v>0</v>
@@ -2649,26 +2520,23 @@
       <c r="F29" t="str">
         <v>0</v>
       </c>
-      <c r="G29" t="str">
-        <v>2.49</v>
-      </c>
       <c r="H29" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="str">
         <v>0</v>
       </c>
       <c r="K29" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L29" t="str">
-        <v>0.00</v>
+        <v>0.83</v>
       </c>
       <c r="M29" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N29" t="str">
         <v>0</v>
@@ -2677,54 +2545,54 @@
         <v>0</v>
       </c>
       <c r="P29" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="str">
-        <v>0.36</v>
+        <v>1.64</v>
       </c>
       <c r="R29" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S29" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T29" t="str">
         <v>0</v>
       </c>
       <c r="U29" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V29" t="str">
-        <v>0.01</v>
+        <v>0.00</v>
       </c>
       <c r="W29" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X29" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y29" t="str">
         <v>0</v>
       </c>
       <c r="Z29" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA29" t="str">
-        <v>0.00</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0x5e3ee9259aa6cbf2caf2c072f5f5fb6db5820ba2</v>
+        <v>0x085170995135a09ce3a0209f34dca2596c4e18f4</v>
       </c>
       <c r="B30" t="str">
         <v>4</v>
       </c>
       <c r="C30" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" t="str">
         <v>0</v>
@@ -2732,11 +2600,8 @@
       <c r="F30" t="str">
         <v>0</v>
       </c>
-      <c r="G30" t="str">
-        <v>0.25</v>
-      </c>
       <c r="H30" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" t="str">
         <v>2</v>
@@ -2745,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" t="str">
-        <v>0.49</v>
+        <v>0.90</v>
       </c>
       <c r="M30" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="str">
         <v>0</v>
@@ -2760,66 +2625,63 @@
         <v>0</v>
       </c>
       <c r="P30" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="str">
-        <v>0.50</v>
+        <v>1.16</v>
       </c>
       <c r="R30" t="str">
         <v>3</v>
       </c>
       <c r="S30" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30" t="str">
         <v>0</v>
       </c>
       <c r="U30" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V30" t="str">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="W30" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X30" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="str">
         <v>0</v>
       </c>
       <c r="Z30" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="str">
-        <v>0.00</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0x19f126c87f36339972e6d9378f102f7edeb6f02d</v>
+        <v>0xe137ab4a383db6c25aa4925690518214d18e0a98</v>
       </c>
       <c r="B31" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" t="str">
         <v>0</v>
       </c>
       <c r="D31" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="str">
-        <v>1</v>
-      </c>
-      <c r="G31" t="str">
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="H31" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" t="str">
         <v>0</v>
@@ -2828,52 +2690,52 @@
         <v>0</v>
       </c>
       <c r="K31" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L31" t="str">
-        <v>0.46</v>
+        <v>1.75</v>
       </c>
       <c r="M31" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="str">
         <v>0</v>
       </c>
       <c r="P31" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="str">
-        <v>0.35</v>
+        <v>1.22</v>
       </c>
       <c r="R31" t="str">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="S31" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T31" t="str">
         <v>0</v>
       </c>
       <c r="U31" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V31" t="str">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="W31" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y31" t="str">
         <v>0</v>
       </c>
       <c r="Z31" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA31" t="str">
         <v>0.02</v>
@@ -2881,28 +2743,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0x3e8a0dfe0afaac4818100f03f3872c0b978620a7</v>
+        <v>0x908a827126b28cff255710979f5fe4fd7dd06013</v>
       </c>
       <c r="B32" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="str">
         <v>0</v>
       </c>
       <c r="D32" t="str">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E32" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="str">
-        <v>6</v>
-      </c>
-      <c r="G32" t="str">
-        <v>0.00</v>
+        <v>2</v>
       </c>
       <c r="H32" t="str">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I32" t="str">
         <v>0</v>
@@ -2911,31 +2770,31 @@
         <v>0</v>
       </c>
       <c r="K32" t="str">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L32" t="str">
-        <v>1.99</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="str">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N32" t="str">
         <v>0</v>
       </c>
       <c r="O32" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="str">
         <v>7</v>
       </c>
       <c r="Q32" t="str">
-        <v>2.48</v>
+        <v>0.77</v>
       </c>
       <c r="R32" t="str">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S32" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="str">
         <v>0</v>
@@ -2947,7 +2806,7 @@
         <v>0.02</v>
       </c>
       <c r="W32" t="str">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X32" t="str">
         <v>0</v>
@@ -2956,409 +2815,439 @@
         <v>0</v>
       </c>
       <c r="Z32" t="str">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA32" t="str">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>0xa8b5719ad76518a93828ada2804d20d6ce4a4c55</v>
+        <v>0x9660ff556cef11c72da81ee9da49aaaea692ddee</v>
       </c>
       <c r="B33" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="str">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E33" t="str">
         <v>0</v>
       </c>
       <c r="F33" t="str">
-        <v>0</v>
-      </c>
-      <c r="G33" t="str">
-        <v>0.00</v>
+        <v>11</v>
       </c>
       <c r="H33" t="str">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I33" t="str">
         <v>1</v>
       </c>
       <c r="J33" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K33" t="str">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L33" t="str">
-        <v>0.25</v>
+        <v>2.60</v>
       </c>
       <c r="M33" t="str">
+        <v>18</v>
+      </c>
+      <c r="N33" t="str">
+        <v>0</v>
+      </c>
+      <c r="O33" t="str">
+        <v>0</v>
+      </c>
+      <c r="P33" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>2.41</v>
+      </c>
+      <c r="R33" t="str">
+        <v>56</v>
+      </c>
+      <c r="S33" t="str">
+        <v>4</v>
+      </c>
+      <c r="T33" t="str">
+        <v>1</v>
+      </c>
+      <c r="U33" t="str">
+        <v>1</v>
+      </c>
+      <c r="V33" t="str">
+        <v>0.10</v>
+      </c>
+      <c r="W33" t="str">
+        <v>58</v>
+      </c>
+      <c r="X33" t="str">
+        <v>6</v>
+      </c>
+      <c r="Y33" t="str">
+        <v>4</v>
+      </c>
+      <c r="Z33" t="str">
         <v>5</v>
       </c>
-      <c r="N33" t="str">
-        <v>1</v>
-      </c>
-      <c r="O33" t="str">
-        <v>0</v>
-      </c>
-      <c r="P33" t="str">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="str">
-        <v>0.51</v>
-      </c>
-      <c r="R33" t="str">
-        <v>1</v>
-      </c>
-      <c r="S33" t="str">
-        <v>4</v>
-      </c>
-      <c r="T33" t="str">
-        <v>0</v>
-      </c>
-      <c r="U33" t="str">
-        <v>4</v>
-      </c>
-      <c r="V33" t="str">
-        <v>0.01</v>
-      </c>
-      <c r="W33" t="str">
-        <v>2</v>
-      </c>
-      <c r="X33" t="str">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="str">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="str">
-        <v>3</v>
-      </c>
       <c r="AA33" t="str">
-        <v>0.00</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0x0365566ef442e63ea7e6905afde6bb749c845fa6</v>
+        <v>0x8fc1a09b073d6428c7ad09706d1007b6508d0e74</v>
       </c>
       <c r="B34" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" t="str">
-        <v>1</v>
-      </c>
-      <c r="G34" t="str">
-        <v>0.80</v>
+        <v>0</v>
       </c>
       <c r="H34" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34" t="str">
-        <v>0.36</v>
+        <v>1.65</v>
       </c>
       <c r="M34" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N34" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="str">
-        <v>0.00</v>
+        <v>1.60</v>
       </c>
       <c r="R34" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S34" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="str">
         <v>0</v>
       </c>
       <c r="U34" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V34" t="str">
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="W34" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X34" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA34" t="str">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0x1017f7990259593e74b478509bab3e01aa026539</v>
+        <v>0x1dd3bd4952b0318ce969fe7bd368f0673ef4cebd</v>
       </c>
       <c r="B35" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" t="str">
-        <v>0</v>
-      </c>
-      <c r="G35" t="str">
-        <v>1.68</v>
+        <v>2</v>
+      </c>
+      <c r="H35" t="str">
+        <v>6</v>
+      </c>
+      <c r="I35" t="str">
+        <v>0</v>
+      </c>
+      <c r="J35" t="str">
+        <v>0</v>
+      </c>
+      <c r="K35" t="str">
+        <v>5</v>
       </c>
       <c r="L35" t="str">
-        <v>0.00</v>
+        <v>0.55</v>
+      </c>
+      <c r="M35" t="str">
+        <v>3</v>
+      </c>
+      <c r="N35" t="str">
+        <v>1</v>
+      </c>
+      <c r="O35" t="str">
+        <v>1</v>
+      </c>
+      <c r="P35" t="str">
+        <v>5</v>
       </c>
       <c r="Q35" t="str">
-        <v>0.00</v>
+        <v>0.30</v>
+      </c>
+      <c r="R35" t="str">
+        <v>7</v>
+      </c>
+      <c r="S35" t="str">
+        <v>0</v>
+      </c>
+      <c r="T35" t="str">
+        <v>0</v>
+      </c>
+      <c r="U35" t="str">
+        <v>5</v>
       </c>
       <c r="V35" t="str">
-        <v>0.00</v>
+        <v>0.02</v>
+      </c>
+      <c r="W35" t="str">
+        <v>11</v>
+      </c>
+      <c r="X35" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="str">
+        <v>4</v>
       </c>
       <c r="AA35" t="str">
-        <v>0.00</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0x0d6682ca40b40b648ec0fc87500756c8675e17ad</v>
+        <v>0xb9b98205f564666f7b432b942642e45d23acd5d4</v>
       </c>
       <c r="B36" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E36" t="str">
         <v>0</v>
       </c>
       <c r="F36" t="str">
-        <v>2</v>
-      </c>
-      <c r="G36" t="str">
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="H36" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I36" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="str">
         <v>0</v>
       </c>
       <c r="K36" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L36" t="str">
-        <v>1.39</v>
+        <v>0.72</v>
       </c>
       <c r="M36" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="str">
         <v>0</v>
       </c>
       <c r="O36" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="str">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="R36" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S36" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T36" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V36" t="str">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="W36" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X36" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA36" t="str">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0x4504d168e871664bbce206d9d0b0c8c08980aeae</v>
+        <v>0x0365566ef442e63ea7e6905afde6bb749c845fa6</v>
       </c>
       <c r="B37" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" t="str">
-        <v>0</v>
-      </c>
-      <c r="G37" t="str">
-        <v>0.84</v>
+        <v>1</v>
+      </c>
+      <c r="H37" t="str">
+        <v>2</v>
+      </c>
+      <c r="I37" t="str">
+        <v>1</v>
+      </c>
+      <c r="J37" t="str">
+        <v>1</v>
+      </c>
+      <c r="K37" t="str">
+        <v>4</v>
       </c>
       <c r="L37" t="str">
-        <v>0.00</v>
+        <v>0.45</v>
+      </c>
+      <c r="M37" t="str">
+        <v>0</v>
+      </c>
+      <c r="N37" t="str">
+        <v>2</v>
+      </c>
+      <c r="O37" t="str">
+        <v>1</v>
+      </c>
+      <c r="P37" t="str">
+        <v>3</v>
       </c>
       <c r="Q37" t="str">
         <v>0.00</v>
       </c>
+      <c r="R37" t="str">
+        <v>1</v>
+      </c>
+      <c r="S37" t="str">
+        <v>1</v>
+      </c>
+      <c r="T37" t="str">
+        <v>0</v>
+      </c>
+      <c r="U37" t="str">
+        <v>2</v>
+      </c>
       <c r="V37" t="str">
         <v>0.00</v>
       </c>
+      <c r="W37" t="str">
+        <v>1</v>
+      </c>
+      <c r="X37" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y37" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="str">
+        <v>3</v>
+      </c>
       <c r="AA37" t="str">
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>0x4d3c1c2d507fe2701febf0133641aa3f3a37266a</v>
+        <v>0x1017f7990259593e74b478509bab3e01aa026539</v>
       </c>
       <c r="B38" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="str">
         <v>1</v>
       </c>
       <c r="E38" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="str">
         <v>0</v>
       </c>
-      <c r="G38" t="str">
-        <v>0.58</v>
-      </c>
-      <c r="H38" t="str">
-        <v>1</v>
-      </c>
-      <c r="I38" t="str">
-        <v>0</v>
-      </c>
-      <c r="J38" t="str">
-        <v>0</v>
-      </c>
-      <c r="K38" t="str">
-        <v>1</v>
-      </c>
       <c r="L38" t="str">
-        <v>0.36</v>
-      </c>
-      <c r="M38" t="str">
-        <v>0</v>
-      </c>
-      <c r="N38" t="str">
-        <v>1</v>
-      </c>
-      <c r="O38" t="str">
-        <v>0</v>
-      </c>
-      <c r="P38" t="str">
-        <v>1</v>
+        <v>0.00</v>
       </c>
       <c r="Q38" t="str">
         <v>0.00</v>
       </c>
-      <c r="R38" t="str">
-        <v>1</v>
-      </c>
-      <c r="S38" t="str">
-        <v>3</v>
-      </c>
-      <c r="T38" t="str">
-        <v>0</v>
-      </c>
-      <c r="U38" t="str">
-        <v>1</v>
-      </c>
       <c r="V38" t="str">
-        <v>0.01</v>
-      </c>
-      <c r="W38" t="str">
-        <v>0</v>
-      </c>
-      <c r="X38" t="str">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="str">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="str">
-        <v>1</v>
+        <v>0.00</v>
       </c>
       <c r="AA38" t="str">
         <v>0.00</v>
@@ -3366,16 +3255,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0xabef1dc7a176cc07a7e8a4b9dca5b5fda8b11701</v>
+        <v>0x3e9bbac4fdd82f1ed910fb806a407a8abb1bc195</v>
       </c>
       <c r="B39" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D39" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" t="str">
         <v>0</v>
@@ -3383,11 +3272,8 @@
       <c r="F39" t="str">
         <v>0</v>
       </c>
-      <c r="G39" t="str">
-        <v>0.00</v>
-      </c>
       <c r="H39" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" t="str">
         <v>0</v>
@@ -3396,52 +3282,52 @@
         <v>0</v>
       </c>
       <c r="K39" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L39" t="str">
-        <v>1.32</v>
+        <v>0.20</v>
       </c>
       <c r="M39" t="str">
         <v>2</v>
       </c>
       <c r="N39" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="str">
         <v>0</v>
       </c>
       <c r="P39" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="str">
-        <v>0.83</v>
+        <v>0.45</v>
       </c>
       <c r="R39" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T39" t="str">
         <v>0</v>
       </c>
       <c r="U39" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V39" t="str">
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
       <c r="W39" t="str">
         <v>0</v>
       </c>
       <c r="X39" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y39" t="str">
         <v>0</v>
       </c>
       <c r="Z39" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA39" t="str">
         <v>0.00</v>
@@ -3449,43 +3335,40 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>0x173ec042aca0a5b6353eda4b2404369075ac17c1</v>
+        <v>0x32d66210495a091b83f3feb6712a1f8d3833be77</v>
       </c>
       <c r="B40" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D40" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="str">
         <v>0</v>
       </c>
       <c r="F40" t="str">
-        <v>0</v>
-      </c>
-      <c r="G40" t="str">
-        <v>0.00</v>
+        <v>4</v>
       </c>
       <c r="H40" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="str">
         <v>0</v>
       </c>
       <c r="K40" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" t="str">
-        <v>0.20</v>
+        <v>0.29</v>
       </c>
       <c r="M40" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="str">
         <v>2</v>
@@ -3497,75 +3380,72 @@
         <v>2</v>
       </c>
       <c r="Q40" t="str">
-        <v>0.00</v>
+        <v>0.15</v>
       </c>
       <c r="R40" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S40" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T40" t="str">
         <v>0</v>
       </c>
       <c r="U40" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V40" t="str">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="W40" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X40" t="str">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y40" t="str">
         <v>0</v>
       </c>
       <c r="Z40" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA40" t="str">
-        <v>0.05</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0xd06b6a801f2ab6f4685ab0296ad1e1770091b421</v>
+        <v>0xff7f05f97030cb2aac6438f7e562a61a89943f16</v>
       </c>
       <c r="B41" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" t="str">
         <v>0</v>
       </c>
       <c r="D41" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" t="str">
         <v>0</v>
       </c>
-      <c r="G41" t="str">
-        <v>0.00</v>
-      </c>
       <c r="H41" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" t="str">
-        <v>0.00</v>
+        <v>0.09</v>
       </c>
       <c r="M41" t="str">
         <v>1</v>
@@ -3574,40 +3454,40 @@
         <v>0</v>
       </c>
       <c r="O41" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P41" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="str">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="R41" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" t="str">
         <v>0.00</v>
       </c>
       <c r="W41" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X41" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA41" t="str">
         <v>0.00</v>
@@ -3618,25 +3498,22 @@
         <v>0xa4ada63fa9417e00c2794cd51db7e9a6aaa473d9</v>
       </c>
       <c r="B42" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" t="str">
         <v>0</v>
       </c>
       <c r="D42" t="str">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E42" t="str">
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>27</v>
-      </c>
-      <c r="G42" t="str">
-        <v>0.00</v>
+        <v>35</v>
       </c>
       <c r="H42" t="str">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I42" t="str">
         <v>0</v>
@@ -3645,13 +3522,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="str">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L42" t="str">
-        <v>3.11</v>
+        <v>4.07</v>
       </c>
       <c r="M42" t="str">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N42" t="str">
         <v>0</v>
@@ -3660,13 +3537,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="str">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q42" t="str">
-        <v>3.19</v>
+        <v>4.30</v>
       </c>
       <c r="R42" t="str">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S42" t="str">
         <v>1</v>
@@ -3675,51 +3552,48 @@
         <v>0</v>
       </c>
       <c r="U42" t="str">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="V42" t="str">
+        <v>0.12</v>
+      </c>
+      <c r="W42" t="str">
+        <v>39</v>
+      </c>
+      <c r="X42" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="str">
+        <v>38</v>
+      </c>
+      <c r="AA42" t="str">
         <v>0.10</v>
-      </c>
-      <c r="W42" t="str">
-        <v>31</v>
-      </c>
-      <c r="X42" t="str">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="str">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="str">
-        <v>29</v>
-      </c>
-      <c r="AA42" t="str">
-        <v>0.08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0xfe01e368d65504d620b2d89f987232400210a5fb</v>
+        <v>0xb263c9d1fe35a0f9c07a2416d05f64a794d28e85</v>
       </c>
       <c r="B43" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" t="str">
         <v>0</v>
       </c>
       <c r="D43" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="str">
         <v>0</v>
       </c>
-      <c r="G43" t="str">
-        <v>0.00</v>
-      </c>
       <c r="H43" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="str">
         <v>0</v>
@@ -3728,172 +3602,154 @@
         <v>1</v>
       </c>
       <c r="K43" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L43" t="str">
-        <v>0.40</v>
+        <v>0.22</v>
       </c>
       <c r="M43" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" t="str">
         <v>0</v>
       </c>
       <c r="O43" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="str">
-        <v>0.40</v>
+        <v>0.00</v>
       </c>
       <c r="R43" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S43" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V43" t="str">
         <v>0.01</v>
       </c>
       <c r="W43" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X43" t="str">
         <v>0</v>
       </c>
       <c r="Y43" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" t="str">
         <v>3</v>
       </c>
       <c r="AA43" t="str">
-        <v>0.03</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0x31f38a4e6cd69a8f4176537df3fc5db7ab1c2da5</v>
+        <v>0x5b007d3dfcf5fcbf6c412b4c5a83537978a292c0</v>
       </c>
       <c r="B44" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="str">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E44" t="str">
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <v>24</v>
-      </c>
-      <c r="G44" t="str">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H44" t="str">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I44" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" t="str">
         <v>0</v>
       </c>
       <c r="K44" t="str">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="L44" t="str">
-        <v>2.87</v>
+        <v>0.00</v>
       </c>
       <c r="M44" t="str">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N44" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P44" t="str">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="str">
-        <v>2.91</v>
+        <v>0.16</v>
       </c>
       <c r="R44" t="str">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S44" t="str">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T44" t="str">
         <v>0</v>
       </c>
       <c r="U44" t="str">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="V44" t="str">
-        <v>0.08</v>
+        <v>0.00</v>
       </c>
       <c r="W44" t="str">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="X44" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y44" t="str">
         <v>0</v>
       </c>
       <c r="Z44" t="str">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="AA44" t="str">
-        <v>0.07</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0xeb9c8b66cab4361801b43eeb1a090f0a3ccd1f5d</v>
+        <v>0xb5a44de74e3f61c61641abfe5b0daf221417e109</v>
       </c>
       <c r="B45" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="str">
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="F45" t="str">
-        <v>53</v>
-      </c>
-      <c r="G45" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="H45" t="str">
-        <v>0</v>
-      </c>
-      <c r="I45" t="str">
-        <v>0</v>
-      </c>
-      <c r="J45" t="str">
-        <v>207</v>
-      </c>
-      <c r="K45" t="str">
         <v>0</v>
       </c>
       <c r="L45" t="str">
@@ -3903,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="str">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="P45" t="str">
         <v>0</v>
@@ -3914,32 +3770,8 @@
       <c r="Q45" t="str">
         <v>0.00</v>
       </c>
-      <c r="R45" t="str">
-        <v>0</v>
-      </c>
-      <c r="S45" t="str">
-        <v>0</v>
-      </c>
-      <c r="T45" t="str">
-        <v>237</v>
-      </c>
-      <c r="U45" t="str">
-        <v>0</v>
-      </c>
       <c r="V45" t="str">
         <v>0.00</v>
-      </c>
-      <c r="W45" t="str">
-        <v>0</v>
-      </c>
-      <c r="X45" t="str">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="str">
-        <v>169</v>
-      </c>
-      <c r="Z45" t="str">
-        <v>0</v>
       </c>
       <c r="AA45" t="str">
         <v>0.00</v>
@@ -3947,13 +3779,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0xb862cdd432abe45edace0517aa12c630dd2f9998</v>
+        <v>0xc80e67ec2b4a870169cdbf9d1dd6567ad8961890</v>
       </c>
       <c r="B46" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="str">
         <v>1</v>
@@ -3964,14 +3796,11 @@
       <c r="F46" t="str">
         <v>0</v>
       </c>
-      <c r="G46" t="str">
-        <v>1.22</v>
-      </c>
       <c r="H46" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="str">
         <v>0</v>
@@ -3980,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="str">
-        <v>0.40</v>
+        <v>0.00</v>
       </c>
       <c r="M46" t="str">
         <v>1</v>
@@ -3995,10 +3824,10 @@
         <v>1</v>
       </c>
       <c r="Q46" t="str">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="R46" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S46" t="str">
         <v>0</v>
@@ -4013,10 +3842,10 @@
         <v>0.01</v>
       </c>
       <c r="W46" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46" t="str">
         <v>0</v>
@@ -4025,18 +3854,18 @@
         <v>1</v>
       </c>
       <c r="AA46" t="str">
-        <v>0.02</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0x561791808a5e499b2704973970243ae38acc7d87</v>
+        <v>0x5e3ee9259aa6cbf2caf2c072f5f5fb6db5820ba2</v>
       </c>
       <c r="B47" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="str">
         <v>3</v>
@@ -4047,14 +3876,11 @@
       <c r="F47" t="str">
         <v>0</v>
       </c>
-      <c r="G47" t="str">
-        <v>0.00</v>
-      </c>
       <c r="H47" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="str">
         <v>0</v>
@@ -4063,13 +3889,13 @@
         <v>3</v>
       </c>
       <c r="L47" t="str">
-        <v>0.00</v>
+        <v>0.49</v>
       </c>
       <c r="M47" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47" t="str">
         <v>0</v>
@@ -4078,13 +3904,13 @@
         <v>3</v>
       </c>
       <c r="Q47" t="str">
-        <v>0.16</v>
+        <v>0.50</v>
       </c>
       <c r="R47" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S47" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T47" t="str">
         <v>0</v>
@@ -4093,13 +3919,13 @@
         <v>3</v>
       </c>
       <c r="V47" t="str">
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="W47" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X47" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y47" t="str">
         <v>0</v>
@@ -4113,7 +3939,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0xd92f70bbf62a161aff0da63d4f4608094f411eeb</v>
+        <v>0x19f126c87f36339972e6d9378f102f7edeb6f02d</v>
       </c>
       <c r="B48" t="str">
         <v>3</v>
@@ -4122,102 +3948,96 @@
         <v>0</v>
       </c>
       <c r="D48" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" t="str">
-        <v>0</v>
-      </c>
-      <c r="G48" t="str">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="H48" t="str">
         <v>2</v>
       </c>
       <c r="I48" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="str">
         <v>0</v>
       </c>
       <c r="K48" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L48" t="str">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="M48" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" t="str">
         <v>0</v>
       </c>
       <c r="O48" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P48" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="str">
-        <v>0.00</v>
+        <v>0.35</v>
       </c>
       <c r="R48" t="str">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S48" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T48" t="str">
         <v>0</v>
       </c>
       <c r="U48" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V48" t="str">
-        <v>0.00</v>
+        <v>0.12</v>
       </c>
       <c r="W48" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X48" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y48" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA48" t="str">
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0x13b6cb13d487a7dbfabb18b6c82283e5c65ae7d3</v>
+        <v>0x3e8a0dfe0afaac4818100f03f3872c0b978620a7</v>
       </c>
       <c r="B49" t="str">
         <v>3</v>
       </c>
       <c r="C49" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E49" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="str">
-        <v>1</v>
-      </c>
-      <c r="G49" t="str">
-        <v>1.53</v>
+        <v>6</v>
       </c>
       <c r="H49" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I49" t="str">
         <v>0</v>
@@ -4226,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="K49" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L49" t="str">
-        <v>0.41</v>
+        <v>1.99</v>
       </c>
       <c r="M49" t="str">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N49" t="str">
         <v>0</v>
@@ -4241,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="P49" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q49" t="str">
-        <v>0.42</v>
+        <v>2.48</v>
       </c>
       <c r="R49" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S49" t="str">
         <v>0</v>
@@ -4256,30 +4076,30 @@
         <v>0</v>
       </c>
       <c r="U49" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V49" t="str">
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
       <c r="W49" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X49" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="str">
         <v>0</v>
       </c>
       <c r="Z49" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA49" t="str">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>0xfa65e65a6321c37486972d71b3f50400bd43f974</v>
+        <v>0xe4a8520ebb281950ef6a132a98557e91deea9fda</v>
       </c>
       <c r="B50" t="str">
         <v>3</v>
@@ -4288,25 +4108,22 @@
         <v>0</v>
       </c>
       <c r="D50" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="str">
         <v>0</v>
       </c>
-      <c r="G50" t="str">
-        <v>0.00</v>
-      </c>
       <c r="H50" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="str">
         <v>2</v>
@@ -4315,28 +4132,28 @@
         <v>0.23</v>
       </c>
       <c r="M50" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50" t="str">
         <v>0</v>
       </c>
       <c r="O50" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P50" t="str">
         <v>2</v>
       </c>
       <c r="Q50" t="str">
-        <v>0.23</v>
+        <v>0.00</v>
       </c>
       <c r="R50" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S50" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T50" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="str">
         <v>2</v>
@@ -4345,24 +4162,1400 @@
         <v>0.00</v>
       </c>
       <c r="W50" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X50" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50" t="str">
         <v>2</v>
       </c>
       <c r="AA50" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0x8abc16e919c61d5863b34f920dfb4dc4a97bf036</v>
+      </c>
+      <c r="B51" t="str">
+        <v>3</v>
+      </c>
+      <c r="C51" t="str">
+        <v>0</v>
+      </c>
+      <c r="D51" t="str">
+        <v>3</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0</v>
+      </c>
+      <c r="F51" t="str">
+        <v>0</v>
+      </c>
+      <c r="H51" t="str">
+        <v>0</v>
+      </c>
+      <c r="I51" t="str">
+        <v>4</v>
+      </c>
+      <c r="J51" t="str">
+        <v>0</v>
+      </c>
+      <c r="K51" t="str">
+        <v>3</v>
+      </c>
+      <c r="L51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M51" t="str">
+        <v>0</v>
+      </c>
+      <c r="N51" t="str">
+        <v>3</v>
+      </c>
+      <c r="O51" t="str">
+        <v>0</v>
+      </c>
+      <c r="P51" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="R51" t="str">
+        <v>1</v>
+      </c>
+      <c r="S51" t="str">
+        <v>3</v>
+      </c>
+      <c r="T51" t="str">
+        <v>0</v>
+      </c>
+      <c r="U51" t="str">
+        <v>3</v>
+      </c>
+      <c r="V51" t="str">
         <v>0.01</v>
+      </c>
+      <c r="W51" t="str">
+        <v>0</v>
+      </c>
+      <c r="X51" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y51" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="str">
+        <v>3</v>
+      </c>
+      <c r="AA51" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0xa8b5719ad76518a93828ada2804d20d6ce4a4c55</v>
+      </c>
+      <c r="B52" t="str">
+        <v>3</v>
+      </c>
+      <c r="C52" t="str">
+        <v>0</v>
+      </c>
+      <c r="D52" t="str">
+        <v>3</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0</v>
+      </c>
+      <c r="F52" t="str">
+        <v>0</v>
+      </c>
+      <c r="H52" t="str">
+        <v>2</v>
+      </c>
+      <c r="I52" t="str">
+        <v>1</v>
+      </c>
+      <c r="J52" t="str">
+        <v>0</v>
+      </c>
+      <c r="K52" t="str">
+        <v>3</v>
+      </c>
+      <c r="L52" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="M52" t="str">
+        <v>5</v>
+      </c>
+      <c r="N52" t="str">
+        <v>1</v>
+      </c>
+      <c r="O52" t="str">
+        <v>0</v>
+      </c>
+      <c r="P52" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>0.51</v>
+      </c>
+      <c r="R52" t="str">
+        <v>1</v>
+      </c>
+      <c r="S52" t="str">
+        <v>4</v>
+      </c>
+      <c r="T52" t="str">
+        <v>0</v>
+      </c>
+      <c r="U52" t="str">
+        <v>4</v>
+      </c>
+      <c r="V52" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="W52" t="str">
+        <v>2</v>
+      </c>
+      <c r="X52" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="str">
+        <v>3</v>
+      </c>
+      <c r="AA52" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0xaf8f6c78a3268e29f63d20da1cd68e6450f0fa37</v>
+      </c>
+      <c r="B53" t="str">
+        <v>3</v>
+      </c>
+      <c r="C53" t="str">
+        <v>0</v>
+      </c>
+      <c r="D53" t="str">
+        <v>3</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0</v>
+      </c>
+      <c r="F53" t="str">
+        <v>0</v>
+      </c>
+      <c r="H53" t="str">
+        <v>2</v>
+      </c>
+      <c r="I53" t="str">
+        <v>1</v>
+      </c>
+      <c r="J53" t="str">
+        <v>0</v>
+      </c>
+      <c r="K53" t="str">
+        <v>3</v>
+      </c>
+      <c r="L53" t="str">
+        <v>0.20</v>
+      </c>
+      <c r="M53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N53" t="str">
+        <v>4</v>
+      </c>
+      <c r="O53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P53" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="R53" t="str">
+        <v>0</v>
+      </c>
+      <c r="S53" t="str">
+        <v>4</v>
+      </c>
+      <c r="T53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U53" t="str">
+        <v>3</v>
+      </c>
+      <c r="V53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="W53" t="str">
+        <v>0</v>
+      </c>
+      <c r="X53" t="str">
+        <v>6</v>
+      </c>
+      <c r="Y53" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="str">
+        <v>3</v>
+      </c>
+      <c r="AA53" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0x0d6682ca40b40b648ec0fc87500756c8675e17ad</v>
+      </c>
+      <c r="B54" t="str">
+        <v>3</v>
+      </c>
+      <c r="C54" t="str">
+        <v>0</v>
+      </c>
+      <c r="D54" t="str">
+        <v>5</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0</v>
+      </c>
+      <c r="F54" t="str">
+        <v>2</v>
+      </c>
+      <c r="H54" t="str">
+        <v>6</v>
+      </c>
+      <c r="I54" t="str">
+        <v>2</v>
+      </c>
+      <c r="J54" t="str">
+        <v>0</v>
+      </c>
+      <c r="K54" t="str">
+        <v>5</v>
+      </c>
+      <c r="L54" t="str">
+        <v>1.39</v>
+      </c>
+      <c r="M54" t="str">
+        <v>5</v>
+      </c>
+      <c r="N54" t="str">
+        <v>0</v>
+      </c>
+      <c r="O54" t="str">
+        <v>1</v>
+      </c>
+      <c r="P54" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>0.89</v>
+      </c>
+      <c r="R54" t="str">
+        <v>4</v>
+      </c>
+      <c r="S54" t="str">
+        <v>3</v>
+      </c>
+      <c r="T54" t="str">
+        <v>1</v>
+      </c>
+      <c r="U54" t="str">
+        <v>5</v>
+      </c>
+      <c r="V54" t="str">
+        <v>0.02</v>
+      </c>
+      <c r="W54" t="str">
+        <v>6</v>
+      </c>
+      <c r="X54" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y54" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z54" t="str">
+        <v>5</v>
+      </c>
+      <c r="AA54" t="str">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0x4504d168e871664bbce206d9d0b0c8c08980aeae</v>
+      </c>
+      <c r="B55" t="str">
+        <v>3</v>
+      </c>
+      <c r="C55" t="str">
+        <v>3</v>
+      </c>
+      <c r="D55" t="str">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0</v>
+      </c>
+      <c r="F55" t="str">
+        <v>0</v>
+      </c>
+      <c r="L55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="V55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="AA55" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0x4d3c1c2d507fe2701febf0133641aa3f3a37266a</v>
+      </c>
+      <c r="B56" t="str">
+        <v>3</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1</v>
+      </c>
+      <c r="D56" t="str">
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <v>1</v>
+      </c>
+      <c r="F56" t="str">
+        <v>0</v>
+      </c>
+      <c r="H56" t="str">
+        <v>1</v>
+      </c>
+      <c r="I56" t="str">
+        <v>0</v>
+      </c>
+      <c r="J56" t="str">
+        <v>0</v>
+      </c>
+      <c r="K56" t="str">
+        <v>1</v>
+      </c>
+      <c r="L56" t="str">
+        <v>0.36</v>
+      </c>
+      <c r="M56" t="str">
+        <v>0</v>
+      </c>
+      <c r="N56" t="str">
+        <v>1</v>
+      </c>
+      <c r="O56" t="str">
+        <v>0</v>
+      </c>
+      <c r="P56" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="R56" t="str">
+        <v>1</v>
+      </c>
+      <c r="S56" t="str">
+        <v>3</v>
+      </c>
+      <c r="T56" t="str">
+        <v>0</v>
+      </c>
+      <c r="U56" t="str">
+        <v>1</v>
+      </c>
+      <c r="V56" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="W56" t="str">
+        <v>0</v>
+      </c>
+      <c r="X56" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="str">
+        <v>1</v>
+      </c>
+      <c r="AA56" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0xabef1dc7a176cc07a7e8a4b9dca5b5fda8b11701</v>
+      </c>
+      <c r="B57" t="str">
+        <v>3</v>
+      </c>
+      <c r="C57" t="str">
+        <v>0</v>
+      </c>
+      <c r="D57" t="str">
+        <v>3</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0</v>
+      </c>
+      <c r="F57" t="str">
+        <v>0</v>
+      </c>
+      <c r="H57" t="str">
+        <v>3</v>
+      </c>
+      <c r="I57" t="str">
+        <v>0</v>
+      </c>
+      <c r="J57" t="str">
+        <v>0</v>
+      </c>
+      <c r="K57" t="str">
+        <v>3</v>
+      </c>
+      <c r="L57" t="str">
+        <v>1.32</v>
+      </c>
+      <c r="M57" t="str">
+        <v>2</v>
+      </c>
+      <c r="N57" t="str">
+        <v>1</v>
+      </c>
+      <c r="O57" t="str">
+        <v>0</v>
+      </c>
+      <c r="P57" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>0.83</v>
+      </c>
+      <c r="R57" t="str">
+        <v>0</v>
+      </c>
+      <c r="S57" t="str">
+        <v>3</v>
+      </c>
+      <c r="T57" t="str">
+        <v>0</v>
+      </c>
+      <c r="U57" t="str">
+        <v>3</v>
+      </c>
+      <c r="V57" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="W57" t="str">
+        <v>0</v>
+      </c>
+      <c r="X57" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y57" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="str">
+        <v>3</v>
+      </c>
+      <c r="AA57" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0x173ec042aca0a5b6353eda4b2404369075ac17c1</v>
+      </c>
+      <c r="B58" t="str">
+        <v>3</v>
+      </c>
+      <c r="C58" t="str">
+        <v>0</v>
+      </c>
+      <c r="D58" t="str">
+        <v>3</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+      <c r="F58" t="str">
+        <v>0</v>
+      </c>
+      <c r="H58" t="str">
+        <v>1</v>
+      </c>
+      <c r="I58" t="str">
+        <v>1</v>
+      </c>
+      <c r="J58" t="str">
+        <v>0</v>
+      </c>
+      <c r="K58" t="str">
+        <v>2</v>
+      </c>
+      <c r="L58" t="str">
+        <v>0.20</v>
+      </c>
+      <c r="M58" t="str">
+        <v>0</v>
+      </c>
+      <c r="N58" t="str">
+        <v>2</v>
+      </c>
+      <c r="O58" t="str">
+        <v>0</v>
+      </c>
+      <c r="P58" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="R58" t="str">
+        <v>2</v>
+      </c>
+      <c r="S58" t="str">
+        <v>0</v>
+      </c>
+      <c r="T58" t="str">
+        <v>0</v>
+      </c>
+      <c r="U58" t="str">
+        <v>2</v>
+      </c>
+      <c r="V58" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="W58" t="str">
+        <v>2</v>
+      </c>
+      <c r="X58" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y58" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="str">
+        <v>2</v>
+      </c>
+      <c r="AA58" t="str">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0xd06b6a801f2ab6f4685ab0296ad1e1770091b421</v>
+      </c>
+      <c r="B59" t="str">
+        <v>3</v>
+      </c>
+      <c r="C59" t="str">
+        <v>0</v>
+      </c>
+      <c r="D59" t="str">
+        <v>3</v>
+      </c>
+      <c r="E59" t="str">
+        <v>0</v>
+      </c>
+      <c r="F59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I59" t="str">
+        <v>2</v>
+      </c>
+      <c r="J59" t="str">
+        <v>0</v>
+      </c>
+      <c r="K59" t="str">
+        <v>1</v>
+      </c>
+      <c r="L59" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M59" t="str">
+        <v>1</v>
+      </c>
+      <c r="N59" t="str">
+        <v>0</v>
+      </c>
+      <c r="O59" t="str">
+        <v>0</v>
+      </c>
+      <c r="P59" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>0.11</v>
+      </c>
+      <c r="R59" t="str">
+        <v>0</v>
+      </c>
+      <c r="S59" t="str">
+        <v>1</v>
+      </c>
+      <c r="T59" t="str">
+        <v>0</v>
+      </c>
+      <c r="U59" t="str">
+        <v>1</v>
+      </c>
+      <c r="V59" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="W59" t="str">
+        <v>0</v>
+      </c>
+      <c r="X59" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y59" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="str">
+        <v>1</v>
+      </c>
+      <c r="AA59" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0xfe01e368d65504d620b2d89f987232400210a5fb</v>
+      </c>
+      <c r="B60" t="str">
+        <v>3</v>
+      </c>
+      <c r="C60" t="str">
+        <v>0</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2</v>
+      </c>
+      <c r="E60" t="str">
+        <v>1</v>
+      </c>
+      <c r="F60" t="str">
+        <v>0</v>
+      </c>
+      <c r="H60" t="str">
+        <v>2</v>
+      </c>
+      <c r="I60" t="str">
+        <v>0</v>
+      </c>
+      <c r="J60" t="str">
+        <v>1</v>
+      </c>
+      <c r="K60" t="str">
+        <v>3</v>
+      </c>
+      <c r="L60" t="str">
+        <v>0.40</v>
+      </c>
+      <c r="M60" t="str">
+        <v>2</v>
+      </c>
+      <c r="N60" t="str">
+        <v>0</v>
+      </c>
+      <c r="O60" t="str">
+        <v>0</v>
+      </c>
+      <c r="P60" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>0.40</v>
+      </c>
+      <c r="R60" t="str">
+        <v>3</v>
+      </c>
+      <c r="S60" t="str">
+        <v>1</v>
+      </c>
+      <c r="T60" t="str">
+        <v>0</v>
+      </c>
+      <c r="U60" t="str">
+        <v>4</v>
+      </c>
+      <c r="V60" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="W60" t="str">
+        <v>3</v>
+      </c>
+      <c r="X60" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="str">
+        <v>3</v>
+      </c>
+      <c r="AA60" t="str">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0xf54d99fd6850b3806a8f10201df94c078937d443</v>
+      </c>
+      <c r="B61" t="str">
+        <v>3</v>
+      </c>
+      <c r="C61" t="str">
+        <v>0</v>
+      </c>
+      <c r="D61" t="str">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <v>3</v>
+      </c>
+      <c r="F61" t="str">
+        <v>0</v>
+      </c>
+      <c r="L61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="V61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="AA61" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0xeb9c8b66cab4361801b43eeb1a090f0a3ccd1f5d</v>
+      </c>
+      <c r="B62" t="str">
+        <v>3</v>
+      </c>
+      <c r="C62" t="str">
+        <v>0</v>
+      </c>
+      <c r="D62" t="str">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <v>56</v>
+      </c>
+      <c r="F62" t="str">
+        <v>53</v>
+      </c>
+      <c r="H62" t="str">
+        <v>0</v>
+      </c>
+      <c r="I62" t="str">
+        <v>0</v>
+      </c>
+      <c r="J62" t="str">
+        <v>207</v>
+      </c>
+      <c r="K62" t="str">
+        <v>0</v>
+      </c>
+      <c r="L62" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M62" t="str">
+        <v>0</v>
+      </c>
+      <c r="N62" t="str">
+        <v>0</v>
+      </c>
+      <c r="O62" t="str">
+        <v>206</v>
+      </c>
+      <c r="P62" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="R62" t="str">
+        <v>0</v>
+      </c>
+      <c r="S62" t="str">
+        <v>0</v>
+      </c>
+      <c r="T62" t="str">
+        <v>237</v>
+      </c>
+      <c r="U62" t="str">
+        <v>0</v>
+      </c>
+      <c r="V62" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="W62" t="str">
+        <v>0</v>
+      </c>
+      <c r="X62" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="str">
+        <v>169</v>
+      </c>
+      <c r="Z62" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0xb862cdd432abe45edace0517aa12c630dd2f9998</v>
+      </c>
+      <c r="B63" t="str">
+        <v>3</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2</v>
+      </c>
+      <c r="D63" t="str">
+        <v>1</v>
+      </c>
+      <c r="E63" t="str">
+        <v>0</v>
+      </c>
+      <c r="F63" t="str">
+        <v>0</v>
+      </c>
+      <c r="H63" t="str">
+        <v>1</v>
+      </c>
+      <c r="I63" t="str">
+        <v>0</v>
+      </c>
+      <c r="J63" t="str">
+        <v>0</v>
+      </c>
+      <c r="K63" t="str">
+        <v>1</v>
+      </c>
+      <c r="L63" t="str">
+        <v>0.40</v>
+      </c>
+      <c r="M63" t="str">
+        <v>1</v>
+      </c>
+      <c r="N63" t="str">
+        <v>0</v>
+      </c>
+      <c r="O63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P63" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>0.34</v>
+      </c>
+      <c r="R63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T63" t="str">
+        <v>0</v>
+      </c>
+      <c r="U63" t="str">
+        <v>1</v>
+      </c>
+      <c r="V63" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="W63" t="str">
+        <v>1</v>
+      </c>
+      <c r="X63" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="str">
+        <v>1</v>
+      </c>
+      <c r="AA63" t="str">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0x561791808a5e499b2704973970243ae38acc7d87</v>
+      </c>
+      <c r="B64" t="str">
+        <v>3</v>
+      </c>
+      <c r="C64" t="str">
+        <v>0</v>
+      </c>
+      <c r="D64" t="str">
+        <v>3</v>
+      </c>
+      <c r="E64" t="str">
+        <v>0</v>
+      </c>
+      <c r="F64" t="str">
+        <v>0</v>
+      </c>
+      <c r="H64" t="str">
+        <v>0</v>
+      </c>
+      <c r="I64" t="str">
+        <v>3</v>
+      </c>
+      <c r="J64" t="str">
+        <v>0</v>
+      </c>
+      <c r="K64" t="str">
+        <v>3</v>
+      </c>
+      <c r="L64" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M64" t="str">
+        <v>1</v>
+      </c>
+      <c r="N64" t="str">
+        <v>2</v>
+      </c>
+      <c r="O64" t="str">
+        <v>0</v>
+      </c>
+      <c r="P64" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>0.16</v>
+      </c>
+      <c r="R64" t="str">
+        <v>0</v>
+      </c>
+      <c r="S64" t="str">
+        <v>3</v>
+      </c>
+      <c r="T64" t="str">
+        <v>0</v>
+      </c>
+      <c r="U64" t="str">
+        <v>3</v>
+      </c>
+      <c r="V64" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="W64" t="str">
+        <v>2</v>
+      </c>
+      <c r="X64" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y64" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="str">
+        <v>3</v>
+      </c>
+      <c r="AA64" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0xd92f70bbf62a161aff0da63d4f4608094f411eeb</v>
+      </c>
+      <c r="B65" t="str">
+        <v>3</v>
+      </c>
+      <c r="C65" t="str">
+        <v>0</v>
+      </c>
+      <c r="D65" t="str">
+        <v>3</v>
+      </c>
+      <c r="E65" t="str">
+        <v>0</v>
+      </c>
+      <c r="F65" t="str">
+        <v>0</v>
+      </c>
+      <c r="H65" t="str">
+        <v>2</v>
+      </c>
+      <c r="I65" t="str">
+        <v>2</v>
+      </c>
+      <c r="J65" t="str">
+        <v>0</v>
+      </c>
+      <c r="K65" t="str">
+        <v>3</v>
+      </c>
+      <c r="L65" t="str">
+        <v>0.36</v>
+      </c>
+      <c r="M65" t="str">
+        <v>0</v>
+      </c>
+      <c r="N65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O65" t="str">
+        <v>3</v>
+      </c>
+      <c r="P65" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="R65" t="str">
+        <v>1</v>
+      </c>
+      <c r="S65" t="str">
+        <v>2</v>
+      </c>
+      <c r="T65" t="str">
+        <v>0</v>
+      </c>
+      <c r="U65" t="str">
+        <v>3</v>
+      </c>
+      <c r="V65" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="W65" t="str">
+        <v>0</v>
+      </c>
+      <c r="X65" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y65" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z65" t="str">
+        <v>4</v>
+      </c>
+      <c r="AA65" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0xf47d2f34f53dbf7c2216910c4af26e52ab7fb40b</v>
+      </c>
+      <c r="B66" t="str">
+        <v>3</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2</v>
+      </c>
+      <c r="D66" t="str">
+        <v>1</v>
+      </c>
+      <c r="E66" t="str">
+        <v>0</v>
+      </c>
+      <c r="F66" t="str">
+        <v>0</v>
+      </c>
+      <c r="H66" t="str">
+        <v>1</v>
+      </c>
+      <c r="I66" t="str">
+        <v>0</v>
+      </c>
+      <c r="J66" t="str">
+        <v>0</v>
+      </c>
+      <c r="K66" t="str">
+        <v>1</v>
+      </c>
+      <c r="L66" t="str">
+        <v>0.37</v>
+      </c>
+      <c r="M66" t="str">
+        <v>1</v>
+      </c>
+      <c r="N66" t="str">
+        <v>0</v>
+      </c>
+      <c r="O66" t="str">
+        <v>0</v>
+      </c>
+      <c r="P66" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>0.36</v>
+      </c>
+      <c r="R66" t="str">
+        <v>0</v>
+      </c>
+      <c r="S66" t="str">
+        <v>0</v>
+      </c>
+      <c r="T66" t="str">
+        <v>1</v>
+      </c>
+      <c r="U66" t="str">
+        <v>1</v>
+      </c>
+      <c r="V66" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="W66" t="str">
+        <v>1</v>
+      </c>
+      <c r="X66" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="str">
+        <v>1</v>
+      </c>
+      <c r="AA66" t="str">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0x13b6cb13d487a7dbfabb18b6c82283e5c65ae7d3</v>
+      </c>
+      <c r="B67" t="str">
+        <v>3</v>
+      </c>
+      <c r="C67" t="str">
+        <v>3</v>
+      </c>
+      <c r="D67" t="str">
+        <v>1</v>
+      </c>
+      <c r="E67" t="str">
+        <v>0</v>
+      </c>
+      <c r="F67" t="str">
+        <v>1</v>
+      </c>
+      <c r="H67" t="str">
+        <v>1</v>
+      </c>
+      <c r="I67" t="str">
+        <v>0</v>
+      </c>
+      <c r="J67" t="str">
+        <v>0</v>
+      </c>
+      <c r="K67" t="str">
+        <v>1</v>
+      </c>
+      <c r="L67" t="str">
+        <v>0.41</v>
+      </c>
+      <c r="M67" t="str">
+        <v>1</v>
+      </c>
+      <c r="N67" t="str">
+        <v>0</v>
+      </c>
+      <c r="O67" t="str">
+        <v>0</v>
+      </c>
+      <c r="P67" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>0.42</v>
+      </c>
+      <c r="R67" t="str">
+        <v>1</v>
+      </c>
+      <c r="S67" t="str">
+        <v>0</v>
+      </c>
+      <c r="T67" t="str">
+        <v>0</v>
+      </c>
+      <c r="U67" t="str">
+        <v>1</v>
+      </c>
+      <c r="V67" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="W67" t="str">
+        <v>1</v>
+      </c>
+      <c r="X67" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y67" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="str">
+        <v>1</v>
+      </c>
+      <c r="AA67" t="str">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0x65adcebcc7275de8b88b4f5b25f10f8268867fb3</v>
+      </c>
+      <c r="B68" t="str">
+        <v>3</v>
+      </c>
+      <c r="C68" t="str">
+        <v>0</v>
+      </c>
+      <c r="D68" t="str">
+        <v>3</v>
+      </c>
+      <c r="E68" t="str">
+        <v>0</v>
+      </c>
+      <c r="F68" t="str">
+        <v>0</v>
+      </c>
+      <c r="H68" t="str">
+        <v>3</v>
+      </c>
+      <c r="I68" t="str">
+        <v>0</v>
+      </c>
+      <c r="J68" t="str">
+        <v>0</v>
+      </c>
+      <c r="K68" t="str">
+        <v>3</v>
+      </c>
+      <c r="L68" t="str">
+        <v>0.29</v>
+      </c>
+      <c r="M68" t="str">
+        <v>3</v>
+      </c>
+      <c r="N68" t="str">
+        <v>0</v>
+      </c>
+      <c r="O68" t="str">
+        <v>0</v>
+      </c>
+      <c r="P68" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>0.34</v>
+      </c>
+      <c r="R68" t="str">
+        <v>2</v>
+      </c>
+      <c r="S68" t="str">
+        <v>1</v>
+      </c>
+      <c r="T68" t="str">
+        <v>0</v>
+      </c>
+      <c r="U68" t="str">
+        <v>3</v>
+      </c>
+      <c r="V68" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="W68" t="str">
+        <v>3</v>
+      </c>
+      <c r="X68" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="str">
+        <v>3</v>
+      </c>
+      <c r="AA68" t="str">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0x924364ae551b80f4fd837283c2daf3a0461bcc98</v>
+      </c>
+      <c r="B69" t="str">
+        <v>3</v>
+      </c>
+      <c r="C69" t="str">
+        <v>3</v>
+      </c>
+      <c r="D69" t="str">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <v>0</v>
+      </c>
+      <c r="F69" t="str">
+        <v>0</v>
+      </c>
+      <c r="L69" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="V69" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="AA69" t="str">
+        <v>0.00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA69"/>
   </ignoredErrors>
 </worksheet>
 </file>